--- a/Diet.xlsx
+++ b/Diet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\cagadales\cagadales1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15180" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Arroz Integral</t>
   </si>
@@ -160,6 +165,9 @@
   </si>
   <si>
     <t>Frijoles</t>
+  </si>
+  <si>
+    <t>nothin but a good time</t>
   </si>
 </sst>
 </file>
@@ -220,11 +228,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,12 +248,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -287,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,31 +545,31 @@
   <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="K2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -574,25 +585,25 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4" t="s">
@@ -606,25 +617,25 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5" t="s">
@@ -726,28 +737,28 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1"/>
       <c r="N11" t="s">
         <v>47</v>
       </c>
@@ -802,7 +813,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -812,25 +823,25 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K16" t="s">
@@ -880,25 +891,25 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -910,27 +921,30 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -950,7 +964,7 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -978,7 +992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -990,7 +1004,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
